--- a/future_prediction/canada/Weekly-Deaths-Prediction r = 5.xlsx
+++ b/future_prediction/canada/Weekly-Deaths-Prediction r = 5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="61">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -191,6 +191,9 @@
   </si>
   <si>
     <t>31 Jan -- 06 Feb 2021</t>
+  </si>
+  <si>
+    <t>07 Feb -- 13 Feb 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -551,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:K57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -609,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G2">
         <v>0.06</v>
@@ -638,7 +641,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -658,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -678,7 +681,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -698,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -718,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -738,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -758,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -778,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -798,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -818,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -838,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -858,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -878,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -898,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -918,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -938,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -958,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -978,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -998,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1018,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1038,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1058,7 +1061,7 @@
         <v>21.44</v>
       </c>
       <c r="F24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1078,7 +1081,7 @@
         <v>18.75</v>
       </c>
       <c r="F25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1098,7 +1101,7 @@
         <v>4.72</v>
       </c>
       <c r="F26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1118,7 +1121,7 @@
         <v>3.13</v>
       </c>
       <c r="F27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1138,7 +1141,7 @@
         <v>0.58</v>
       </c>
       <c r="F28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1158,7 +1161,7 @@
         <v>17.73</v>
       </c>
       <c r="F29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1178,7 +1181,7 @@
         <v>18.01</v>
       </c>
       <c r="F30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1198,7 +1201,7 @@
         <v>9.58</v>
       </c>
       <c r="F31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1218,7 +1221,7 @@
         <v>20.31</v>
       </c>
       <c r="F32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1238,7 +1241,7 @@
         <v>16.33</v>
       </c>
       <c r="F33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1258,7 +1261,7 @@
         <v>28.75</v>
       </c>
       <c r="F34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1278,7 +1281,7 @@
         <v>22.65</v>
       </c>
       <c r="F35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1298,7 +1301,7 @@
         <v>23.13</v>
       </c>
       <c r="F36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1318,7 +1321,7 @@
         <v>13.06</v>
       </c>
       <c r="F37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1338,7 +1341,7 @@
         <v>5.63</v>
       </c>
       <c r="F38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1358,7 +1361,7 @@
         <v>54.38</v>
       </c>
       <c r="F39" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1378,7 +1381,7 @@
         <v>36.28</v>
       </c>
       <c r="F40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1398,7 +1401,7 @@
         <v>21.45</v>
       </c>
       <c r="F41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1418,7 +1421,7 @@
         <v>5.89</v>
       </c>
       <c r="F42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1438,7 +1441,7 @@
         <v>49.85</v>
       </c>
       <c r="F43" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J43">
         <v>49.85</v>
@@ -1458,7 +1461,7 @@
         <v>120.57</v>
       </c>
       <c r="F44" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1472,7 +1475,7 @@
         <v>124.71</v>
       </c>
       <c r="F45" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1486,7 +1489,7 @@
         <v>112.55</v>
       </c>
       <c r="F46" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1500,7 +1503,7 @@
         <v>90.58</v>
       </c>
       <c r="F47" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1520,7 +1523,7 @@
         <v>49.85</v>
       </c>
       <c r="F48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J48">
         <v>49.85</v>
@@ -1540,7 +1543,7 @@
         <v>120.57</v>
       </c>
       <c r="F49" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1554,7 +1557,7 @@
         <v>124.71</v>
       </c>
       <c r="F50" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1568,7 +1571,7 @@
         <v>112.55</v>
       </c>
       <c r="F51" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1582,7 +1585,77 @@
         <v>90.58</v>
       </c>
       <c r="F52" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" t="s">
+        <v>55</v>
+      </c>
+      <c r="D53">
+        <v>120.57</v>
+      </c>
+      <c r="F53" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" t="s">
+        <v>56</v>
+      </c>
+      <c r="D54">
+        <v>124.71</v>
+      </c>
+      <c r="F54" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" t="s">
+        <v>57</v>
+      </c>
+      <c r="D55">
+        <v>112.55</v>
+      </c>
+      <c r="F55" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" t="s">
+        <v>58</v>
+      </c>
+      <c r="D56">
+        <v>90.58</v>
+      </c>
+      <c r="F56" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57" t="s">
         <v>59</v>
+      </c>
+      <c r="D57">
+        <v>114.16</v>
+      </c>
+      <c r="F57" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/canada/Weekly-Deaths-Prediction r = 5.xlsx
+++ b/future_prediction/canada/Weekly-Deaths-Prediction r = 5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="63">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -55,6 +55,9 @@
     <t>2021-01-09</t>
   </si>
   <si>
+    <t>2021-01-16</t>
+  </si>
+  <si>
     <t>22 Mar -- 28 Mar 2020</t>
   </si>
   <si>
@@ -194,6 +197,9 @@
   </si>
   <si>
     <t>07 Feb -- 13 Feb 2021</t>
+  </si>
+  <si>
+    <t>14 Feb -- 20 Feb 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -554,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K57"/>
+  <dimension ref="A1:K62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,7 +606,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <v>6</v>
@@ -612,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G2">
         <v>0.06</v>
@@ -629,7 +635,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>22.43</v>
@@ -641,7 +647,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -649,7 +655,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4">
         <v>62.29</v>
@@ -661,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -669,7 +675,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5">
         <v>106.71</v>
@@ -681,7 +687,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -689,7 +695,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6">
         <v>167.14</v>
@@ -701,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -709,7 +715,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7">
         <v>159</v>
@@ -721,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -729,7 +735,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8">
         <v>162.71</v>
@@ -741,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -749,7 +755,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9">
         <v>139.57</v>
@@ -761,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -769,7 +775,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10">
         <v>95.14</v>
@@ -781,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -789,7 +795,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11">
         <v>99</v>
@@ -801,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -809,7 +815,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12">
         <v>98.70999999999999</v>
@@ -821,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -829,7 +835,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13">
         <v>47.57</v>
@@ -841,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -849,7 +855,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14">
         <v>40.43</v>
@@ -861,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -869,7 +875,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15">
         <v>15.71</v>
@@ -881,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -889,7 +895,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16">
         <v>22.29</v>
@@ -901,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -909,7 +915,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17">
         <v>12.29</v>
@@ -921,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -929,7 +935,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18">
         <v>10.57</v>
@@ -941,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -949,7 +955,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19">
         <v>5.29</v>
@@ -961,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -969,7 +975,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20">
         <v>8.140000000000001</v>
@@ -981,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -989,7 +995,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C21">
         <v>5.43</v>
@@ -1001,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1009,7 +1015,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C22">
         <v>6.86</v>
@@ -1021,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1029,7 +1035,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>6.43</v>
@@ -1041,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1049,7 +1055,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C24">
         <v>6.29</v>
@@ -1061,7 +1067,7 @@
         <v>21.44</v>
       </c>
       <c r="F24" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1069,7 +1075,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C25">
         <v>4.43</v>
@@ -1081,7 +1087,7 @@
         <v>18.75</v>
       </c>
       <c r="F25" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1089,7 +1095,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C26">
         <v>4</v>
@@ -1101,7 +1107,7 @@
         <v>4.72</v>
       </c>
       <c r="F26" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1109,7 +1115,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C27">
         <v>6</v>
@@ -1121,7 +1127,7 @@
         <v>3.13</v>
       </c>
       <c r="F27" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1129,7 +1135,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C28">
         <v>7.29</v>
@@ -1141,7 +1147,7 @@
         <v>0.58</v>
       </c>
       <c r="F28" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1149,7 +1155,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C29">
         <v>25</v>
@@ -1161,7 +1167,7 @@
         <v>17.73</v>
       </c>
       <c r="F29" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1169,7 +1175,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C30">
         <v>24.71</v>
@@ -1181,7 +1187,7 @@
         <v>18.01</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1189,7 +1195,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C31">
         <v>17.29</v>
@@ -1201,7 +1207,7 @@
         <v>9.58</v>
       </c>
       <c r="F31" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1209,7 +1215,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C32">
         <v>26.71</v>
@@ -1221,7 +1227,7 @@
         <v>20.31</v>
       </c>
       <c r="F32" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1229,7 +1235,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C33">
         <v>31.14</v>
@@ -1241,7 +1247,7 @@
         <v>16.33</v>
       </c>
       <c r="F33" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1249,7 +1255,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C34">
         <v>51.43</v>
@@ -1261,7 +1267,7 @@
         <v>28.75</v>
       </c>
       <c r="F34" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1269,7 +1275,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C35">
         <v>57.14</v>
@@ -1281,7 +1287,7 @@
         <v>22.65</v>
       </c>
       <c r="F35" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1289,7 +1295,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C36">
         <v>72.56999999999999</v>
@@ -1301,7 +1307,7 @@
         <v>23.13</v>
       </c>
       <c r="F36" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1309,7 +1315,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C37">
         <v>76.86</v>
@@ -1321,7 +1327,7 @@
         <v>13.06</v>
       </c>
       <c r="F37" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1329,7 +1335,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C38">
         <v>87.70999999999999</v>
@@ -1341,7 +1347,7 @@
         <v>5.63</v>
       </c>
       <c r="F38" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1349,7 +1355,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C39">
         <v>108.57</v>
@@ -1361,7 +1367,7 @@
         <v>54.38</v>
       </c>
       <c r="F39" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1369,7 +1375,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C40">
         <v>114.86</v>
@@ -1381,7 +1387,7 @@
         <v>36.28</v>
       </c>
       <c r="F40" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1389,7 +1395,7 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C41">
         <v>94.70999999999999</v>
@@ -1401,7 +1407,7 @@
         <v>21.45</v>
       </c>
       <c r="F41" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1409,7 +1415,7 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C42">
         <v>124.71</v>
@@ -1421,7 +1427,7 @@
         <v>5.89</v>
       </c>
       <c r="F42" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1429,7 +1435,7 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C43">
         <v>166</v>
@@ -1441,7 +1447,7 @@
         <v>49.85</v>
       </c>
       <c r="F43" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J43">
         <v>49.85</v>
@@ -1455,13 +1461,25 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="C44">
+        <v>145.43</v>
       </c>
       <c r="D44">
         <v>120.57</v>
       </c>
+      <c r="E44">
+        <v>24.86</v>
+      </c>
       <c r="F44" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="J44">
+        <v>37.36</v>
+      </c>
+      <c r="K44">
+        <v>23.56</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1469,13 +1487,13 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D45">
         <v>124.71</v>
       </c>
       <c r="F45" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1483,13 +1501,13 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D46">
         <v>112.55</v>
       </c>
       <c r="F46" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1497,13 +1515,13 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D47">
         <v>90.58</v>
       </c>
       <c r="F47" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1511,7 +1529,7 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C48">
         <v>166</v>
@@ -1523,139 +1541,233 @@
         <v>49.85</v>
       </c>
       <c r="F48" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J48">
-        <v>49.85</v>
+        <v>41.52</v>
       </c>
       <c r="K48">
-        <v>30.03</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>25.72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" t="s">
         <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="C49">
+        <v>145.43</v>
       </c>
       <c r="D49">
         <v>120.57</v>
       </c>
+      <c r="E49">
+        <v>24.86</v>
+      </c>
       <c r="F49" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="J49">
+        <v>37.36</v>
+      </c>
+      <c r="K49">
+        <v>23.56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" t="s">
         <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D50">
         <v>124.71</v>
       </c>
       <c r="F50" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" t="s">
         <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D51">
         <v>112.55</v>
       </c>
       <c r="F51" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" t="s">
         <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D52">
         <v>90.58</v>
       </c>
       <c r="F52" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" t="s">
         <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="C53">
+        <v>145.43</v>
       </c>
       <c r="D53">
         <v>120.57</v>
       </c>
+      <c r="E53">
+        <v>24.86</v>
+      </c>
       <c r="F53" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="J53">
+        <v>34.86</v>
+      </c>
+      <c r="K53">
+        <v>22.27</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" t="s">
         <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D54">
         <v>124.71</v>
       </c>
       <c r="F54" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" t="s">
         <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D55">
         <v>112.55</v>
       </c>
       <c r="F55" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" t="s">
         <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D56">
         <v>90.58</v>
       </c>
       <c r="F56" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" t="s">
         <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D57">
         <v>114.16</v>
       </c>
       <c r="F57" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" t="s">
+        <v>13</v>
+      </c>
+      <c r="B58" t="s">
+        <v>57</v>
+      </c>
+      <c r="D58">
+        <v>124.71</v>
+      </c>
+      <c r="F58" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59" t="s">
+        <v>58</v>
+      </c>
+      <c r="D59">
+        <v>112.55</v>
+      </c>
+      <c r="F59" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60" t="s">
+        <v>59</v>
+      </c>
+      <c r="D60">
+        <v>90.58</v>
+      </c>
+      <c r="F60" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" t="s">
         <v>60</v>
+      </c>
+      <c r="D61">
+        <v>114.16</v>
+      </c>
+      <c r="F61" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" t="s">
+        <v>13</v>
+      </c>
+      <c r="B62" t="s">
+        <v>61</v>
+      </c>
+      <c r="D62">
+        <v>120.1</v>
+      </c>
+      <c r="F62" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/canada/Weekly-Deaths-Prediction r = 5.xlsx
+++ b/future_prediction/canada/Weekly-Deaths-Prediction r = 5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="65">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -58,6 +58,9 @@
     <t>2021-01-16</t>
   </si>
   <si>
+    <t>2021-01-30</t>
+  </si>
+  <si>
     <t>22 Mar -- 28 Mar 2020</t>
   </si>
   <si>
@@ -200,6 +203,9 @@
   </si>
   <si>
     <t>14 Feb -- 20 Feb 2021</t>
+  </si>
+  <si>
+    <t>21 Feb -- 27 Feb 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -560,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K62"/>
+  <dimension ref="A1:K67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -606,7 +612,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>6</v>
@@ -618,7 +624,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G2">
         <v>0.06</v>
@@ -635,7 +641,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3">
         <v>22.43</v>
@@ -647,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -655,7 +661,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <v>62.29</v>
@@ -667,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -675,7 +681,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>106.71</v>
@@ -687,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -695,7 +701,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6">
         <v>167.14</v>
@@ -707,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -715,7 +721,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7">
         <v>159</v>
@@ -727,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -735,7 +741,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8">
         <v>162.71</v>
@@ -747,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -755,7 +761,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9">
         <v>139.57</v>
@@ -767,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -775,7 +781,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10">
         <v>95.14</v>
@@ -787,7 +793,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -795,7 +801,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11">
         <v>99</v>
@@ -807,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -815,7 +821,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12">
         <v>98.70999999999999</v>
@@ -827,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -835,7 +841,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13">
         <v>47.57</v>
@@ -847,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -855,7 +861,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14">
         <v>40.43</v>
@@ -867,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -875,7 +881,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15">
         <v>15.71</v>
@@ -887,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -895,7 +901,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16">
         <v>22.29</v>
@@ -907,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -915,7 +921,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C17">
         <v>12.29</v>
@@ -927,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -935,7 +941,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18">
         <v>10.57</v>
@@ -947,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -955,7 +961,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19">
         <v>5.29</v>
@@ -967,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -975,7 +981,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C20">
         <v>8.140000000000001</v>
@@ -987,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -995,7 +1001,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21">
         <v>5.43</v>
@@ -1007,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1015,7 +1021,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>6.86</v>
@@ -1027,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1035,7 +1041,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C23">
         <v>6.43</v>
@@ -1047,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1055,7 +1061,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C24">
         <v>6.29</v>
@@ -1067,7 +1073,7 @@
         <v>21.44</v>
       </c>
       <c r="F24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1075,7 +1081,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C25">
         <v>4.43</v>
@@ -1087,7 +1093,7 @@
         <v>18.75</v>
       </c>
       <c r="F25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1095,7 +1101,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C26">
         <v>4</v>
@@ -1107,7 +1113,7 @@
         <v>4.72</v>
       </c>
       <c r="F26" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1115,7 +1121,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C27">
         <v>6</v>
@@ -1127,7 +1133,7 @@
         <v>3.13</v>
       </c>
       <c r="F27" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1135,7 +1141,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C28">
         <v>7.29</v>
@@ -1147,7 +1153,7 @@
         <v>0.58</v>
       </c>
       <c r="F28" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1155,7 +1161,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C29">
         <v>25</v>
@@ -1167,7 +1173,7 @@
         <v>17.73</v>
       </c>
       <c r="F29" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1175,7 +1181,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C30">
         <v>24.71</v>
@@ -1187,7 +1193,7 @@
         <v>18.01</v>
       </c>
       <c r="F30" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1195,7 +1201,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C31">
         <v>17.29</v>
@@ -1207,7 +1213,7 @@
         <v>9.58</v>
       </c>
       <c r="F31" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1215,7 +1221,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C32">
         <v>26.71</v>
@@ -1227,7 +1233,7 @@
         <v>20.31</v>
       </c>
       <c r="F32" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1235,7 +1241,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C33">
         <v>31.14</v>
@@ -1247,7 +1253,7 @@
         <v>16.33</v>
       </c>
       <c r="F33" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1255,7 +1261,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C34">
         <v>51.43</v>
@@ -1267,7 +1273,7 @@
         <v>28.75</v>
       </c>
       <c r="F34" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1275,7 +1281,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C35">
         <v>57.14</v>
@@ -1287,7 +1293,7 @@
         <v>22.65</v>
       </c>
       <c r="F35" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1295,7 +1301,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C36">
         <v>72.56999999999999</v>
@@ -1307,7 +1313,7 @@
         <v>23.13</v>
       </c>
       <c r="F36" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1315,7 +1321,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C37">
         <v>76.86</v>
@@ -1327,7 +1333,7 @@
         <v>13.06</v>
       </c>
       <c r="F37" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1335,7 +1341,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C38">
         <v>87.70999999999999</v>
@@ -1347,7 +1353,7 @@
         <v>5.63</v>
       </c>
       <c r="F38" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1355,7 +1361,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C39">
         <v>108.57</v>
@@ -1367,7 +1373,7 @@
         <v>54.38</v>
       </c>
       <c r="F39" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1375,7 +1381,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C40">
         <v>114.86</v>
@@ -1387,7 +1393,7 @@
         <v>36.28</v>
       </c>
       <c r="F40" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1395,7 +1401,7 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C41">
         <v>94.70999999999999</v>
@@ -1407,7 +1413,7 @@
         <v>21.45</v>
       </c>
       <c r="F41" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1415,7 +1421,7 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C42">
         <v>124.71</v>
@@ -1427,7 +1433,7 @@
         <v>5.89</v>
       </c>
       <c r="F42" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1435,25 +1441,25 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C43">
-        <v>166</v>
+        <v>152.86</v>
       </c>
       <c r="D43">
         <v>116.15</v>
       </c>
       <c r="E43">
-        <v>49.85</v>
+        <v>36.71</v>
       </c>
       <c r="F43" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J43">
-        <v>49.85</v>
+        <v>36.71</v>
       </c>
       <c r="K43">
-        <v>30.03</v>
+        <v>24.02</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1461,25 +1467,25 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C44">
-        <v>145.43</v>
+        <v>142</v>
       </c>
       <c r="D44">
         <v>120.57</v>
       </c>
       <c r="E44">
-        <v>24.86</v>
+        <v>21.43</v>
       </c>
       <c r="F44" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J44">
-        <v>37.36</v>
+        <v>29.07</v>
       </c>
       <c r="K44">
-        <v>23.56</v>
+        <v>19.55</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1487,13 +1493,25 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="C45">
+        <v>144.86</v>
       </c>
       <c r="D45">
         <v>124.71</v>
       </c>
+      <c r="E45">
+        <v>20.15</v>
+      </c>
       <c r="F45" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="J45">
+        <v>26.1</v>
+      </c>
+      <c r="K45">
+        <v>17.67</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1501,13 +1519,25 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="C46">
+        <v>133.43</v>
       </c>
       <c r="D46">
         <v>112.55</v>
       </c>
+      <c r="E46">
+        <v>20.88</v>
+      </c>
       <c r="F46" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="J46">
+        <v>24.79</v>
+      </c>
+      <c r="K46">
+        <v>17.17</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1515,13 +1545,13 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D47">
         <v>90.58</v>
       </c>
       <c r="F47" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1529,25 +1559,25 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C48">
-        <v>166</v>
+        <v>152.86</v>
       </c>
       <c r="D48">
         <v>116.15</v>
       </c>
       <c r="E48">
-        <v>49.85</v>
+        <v>36.71</v>
       </c>
       <c r="F48" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J48">
-        <v>41.52</v>
+        <v>27.18</v>
       </c>
       <c r="K48">
-        <v>25.72</v>
+        <v>18.54</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -1555,25 +1585,25 @@
         <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C49">
-        <v>145.43</v>
+        <v>142</v>
       </c>
       <c r="D49">
         <v>120.57</v>
       </c>
       <c r="E49">
-        <v>24.86</v>
+        <v>21.43</v>
       </c>
       <c r="F49" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J49">
-        <v>37.36</v>
+        <v>26.22</v>
       </c>
       <c r="K49">
-        <v>23.56</v>
+        <v>17.96</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -1581,13 +1611,25 @@
         <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="C50">
+        <v>144.86</v>
       </c>
       <c r="D50">
         <v>124.71</v>
       </c>
+      <c r="E50">
+        <v>20.15</v>
+      </c>
       <c r="F50" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="J50">
+        <v>25.35</v>
+      </c>
+      <c r="K50">
+        <v>17.38</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -1595,13 +1637,25 @@
         <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="C51">
+        <v>133.43</v>
       </c>
       <c r="D51">
         <v>112.55</v>
       </c>
+      <c r="E51">
+        <v>20.88</v>
+      </c>
       <c r="F51" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="J51">
+        <v>24.79</v>
+      </c>
+      <c r="K51">
+        <v>17.17</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -1609,13 +1663,13 @@
         <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D52">
         <v>90.58</v>
       </c>
       <c r="F52" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -1623,25 +1677,25 @@
         <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C53">
-        <v>145.43</v>
+        <v>142</v>
       </c>
       <c r="D53">
         <v>120.57</v>
       </c>
       <c r="E53">
-        <v>24.86</v>
+        <v>21.43</v>
       </c>
       <c r="F53" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J53">
-        <v>34.86</v>
+        <v>24.42</v>
       </c>
       <c r="K53">
-        <v>22.27</v>
+        <v>16.94</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -1649,13 +1703,25 @@
         <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="C54">
+        <v>144.86</v>
       </c>
       <c r="D54">
         <v>124.71</v>
       </c>
+      <c r="E54">
+        <v>20.15</v>
+      </c>
       <c r="F54" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="J54">
+        <v>23.99</v>
+      </c>
+      <c r="K54">
+        <v>16.63</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -1663,13 +1729,25 @@
         <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="C55">
+        <v>133.43</v>
       </c>
       <c r="D55">
         <v>112.55</v>
       </c>
+      <c r="E55">
+        <v>20.88</v>
+      </c>
       <c r="F55" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="J55">
+        <v>23.71</v>
+      </c>
+      <c r="K55">
+        <v>16.54</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -1677,13 +1755,13 @@
         <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D56">
         <v>90.58</v>
       </c>
       <c r="F56" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -1691,13 +1769,13 @@
         <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D57">
         <v>114.16</v>
       </c>
       <c r="F57" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -1705,13 +1783,25 @@
         <v>13</v>
       </c>
       <c r="B58" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="C58">
+        <v>144.86</v>
       </c>
       <c r="D58">
         <v>124.71</v>
       </c>
+      <c r="E58">
+        <v>20.15</v>
+      </c>
       <c r="F58" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="J58">
+        <v>23.41</v>
+      </c>
+      <c r="K58">
+        <v>16.32</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -1719,13 +1809,25 @@
         <v>13</v>
       </c>
       <c r="B59" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="C59">
+        <v>133.43</v>
       </c>
       <c r="D59">
         <v>112.55</v>
       </c>
+      <c r="E59">
+        <v>20.88</v>
+      </c>
       <c r="F59" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="J59">
+        <v>23.22</v>
+      </c>
+      <c r="K59">
+        <v>16.27</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -1733,13 +1835,13 @@
         <v>13</v>
       </c>
       <c r="B60" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D60">
         <v>90.58</v>
       </c>
       <c r="F60" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -1747,13 +1849,13 @@
         <v>13</v>
       </c>
       <c r="B61" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D61">
         <v>114.16</v>
       </c>
       <c r="F61" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -1761,13 +1863,95 @@
         <v>13</v>
       </c>
       <c r="B62" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D62">
         <v>120.1</v>
       </c>
       <c r="F62" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" t="s">
+        <v>14</v>
+      </c>
+      <c r="B63" t="s">
+        <v>59</v>
+      </c>
+      <c r="C63">
+        <v>133.43</v>
+      </c>
+      <c r="D63">
+        <v>107.53</v>
+      </c>
+      <c r="E63">
+        <v>25.9</v>
+      </c>
+      <c r="F63" t="s">
+        <v>64</v>
+      </c>
+      <c r="J63">
+        <v>23.41</v>
+      </c>
+      <c r="K63">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" t="s">
+        <v>14</v>
+      </c>
+      <c r="B64" t="s">
+        <v>60</v>
+      </c>
+      <c r="D64">
+        <v>78.37</v>
+      </c>
+      <c r="F64" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>14</v>
+      </c>
+      <c r="B65" t="s">
+        <v>61</v>
+      </c>
+      <c r="D65">
+        <v>98.41</v>
+      </c>
+      <c r="F65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>14</v>
+      </c>
+      <c r="B66" t="s">
         <v>62</v>
+      </c>
+      <c r="D66">
+        <v>114.27</v>
+      </c>
+      <c r="F66" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>14</v>
+      </c>
+      <c r="B67" t="s">
+        <v>63</v>
+      </c>
+      <c r="D67">
+        <v>117.01</v>
+      </c>
+      <c r="F67" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/canada/Weekly-Deaths-Prediction r = 5.xlsx
+++ b/future_prediction/canada/Weekly-Deaths-Prediction r = 5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="66">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -206,6 +206,9 @@
   </si>
   <si>
     <t>21 Feb -- 27 Feb 2021</t>
+  </si>
+  <si>
+    <t>28 Feb -- 06 Mar 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -566,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K67"/>
+  <dimension ref="A1:K72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -624,7 +627,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G2">
         <v>0.06</v>
@@ -653,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -673,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -693,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -713,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -733,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -753,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -773,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -793,7 +796,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -813,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -833,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -853,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -873,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -893,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -913,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -933,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -953,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -973,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -993,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1013,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1033,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1053,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1073,7 +1076,7 @@
         <v>21.44</v>
       </c>
       <c r="F24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1093,7 +1096,7 @@
         <v>18.75</v>
       </c>
       <c r="F25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1113,7 +1116,7 @@
         <v>4.72</v>
       </c>
       <c r="F26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1133,7 +1136,7 @@
         <v>3.13</v>
       </c>
       <c r="F27" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1153,7 +1156,7 @@
         <v>0.58</v>
       </c>
       <c r="F28" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1173,7 +1176,7 @@
         <v>17.73</v>
       </c>
       <c r="F29" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1193,7 +1196,7 @@
         <v>18.01</v>
       </c>
       <c r="F30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1213,7 +1216,7 @@
         <v>9.58</v>
       </c>
       <c r="F31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1233,7 +1236,7 @@
         <v>20.31</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1253,7 +1256,7 @@
         <v>16.33</v>
       </c>
       <c r="F33" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1273,7 +1276,7 @@
         <v>28.75</v>
       </c>
       <c r="F34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1293,7 +1296,7 @@
         <v>22.65</v>
       </c>
       <c r="F35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1313,7 +1316,7 @@
         <v>23.13</v>
       </c>
       <c r="F36" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1333,7 +1336,7 @@
         <v>13.06</v>
       </c>
       <c r="F37" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1353,7 +1356,7 @@
         <v>5.63</v>
       </c>
       <c r="F38" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1373,7 +1376,7 @@
         <v>54.38</v>
       </c>
       <c r="F39" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1393,7 +1396,7 @@
         <v>36.28</v>
       </c>
       <c r="F40" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1413,7 +1416,7 @@
         <v>21.45</v>
       </c>
       <c r="F41" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1433,7 +1436,7 @@
         <v>5.89</v>
       </c>
       <c r="F42" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1453,7 +1456,7 @@
         <v>36.71</v>
       </c>
       <c r="F43" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J43">
         <v>36.71</v>
@@ -1479,7 +1482,7 @@
         <v>21.43</v>
       </c>
       <c r="F44" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J44">
         <v>29.07</v>
@@ -1505,7 +1508,7 @@
         <v>20.15</v>
       </c>
       <c r="F45" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J45">
         <v>26.1</v>
@@ -1531,7 +1534,7 @@
         <v>20.88</v>
       </c>
       <c r="F46" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J46">
         <v>24.79</v>
@@ -1551,7 +1554,7 @@
         <v>90.58</v>
       </c>
       <c r="F47" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1571,7 +1574,7 @@
         <v>36.71</v>
       </c>
       <c r="F48" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J48">
         <v>27.18</v>
@@ -1597,7 +1600,7 @@
         <v>21.43</v>
       </c>
       <c r="F49" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J49">
         <v>26.22</v>
@@ -1623,7 +1626,7 @@
         <v>20.15</v>
       </c>
       <c r="F50" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J50">
         <v>25.35</v>
@@ -1649,7 +1652,7 @@
         <v>20.88</v>
       </c>
       <c r="F51" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J51">
         <v>24.79</v>
@@ -1669,7 +1672,7 @@
         <v>90.58</v>
       </c>
       <c r="F52" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -1689,7 +1692,7 @@
         <v>21.43</v>
       </c>
       <c r="F53" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J53">
         <v>24.42</v>
@@ -1715,7 +1718,7 @@
         <v>20.15</v>
       </c>
       <c r="F54" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J54">
         <v>23.99</v>
@@ -1741,7 +1744,7 @@
         <v>20.88</v>
       </c>
       <c r="F55" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J55">
         <v>23.71</v>
@@ -1761,7 +1764,7 @@
         <v>90.58</v>
       </c>
       <c r="F56" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -1775,7 +1778,7 @@
         <v>114.16</v>
       </c>
       <c r="F57" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -1795,7 +1798,7 @@
         <v>20.15</v>
       </c>
       <c r="F58" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J58">
         <v>23.41</v>
@@ -1821,7 +1824,7 @@
         <v>20.88</v>
       </c>
       <c r="F59" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J59">
         <v>23.22</v>
@@ -1841,7 +1844,7 @@
         <v>90.58</v>
       </c>
       <c r="F60" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -1855,7 +1858,7 @@
         <v>114.16</v>
       </c>
       <c r="F61" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -1869,7 +1872,7 @@
         <v>120.1</v>
       </c>
       <c r="F62" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -1889,7 +1892,7 @@
         <v>25.9</v>
       </c>
       <c r="F63" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J63">
         <v>23.41</v>
@@ -1909,7 +1912,7 @@
         <v>78.37</v>
       </c>
       <c r="F64" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1923,7 +1926,7 @@
         <v>98.41</v>
       </c>
       <c r="F65" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1937,7 +1940,7 @@
         <v>114.27</v>
       </c>
       <c r="F66" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1951,7 +1954,77 @@
         <v>117.01</v>
       </c>
       <c r="F67" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>14</v>
+      </c>
+      <c r="B68" t="s">
+        <v>60</v>
+      </c>
+      <c r="D68">
+        <v>78.37</v>
+      </c>
+      <c r="F68" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>14</v>
+      </c>
+      <c r="B69" t="s">
+        <v>61</v>
+      </c>
+      <c r="D69">
+        <v>98.41</v>
+      </c>
+      <c r="F69" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
+        <v>14</v>
+      </c>
+      <c r="B70" t="s">
+        <v>62</v>
+      </c>
+      <c r="D70">
+        <v>114.27</v>
+      </c>
+      <c r="F70" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
+        <v>14</v>
+      </c>
+      <c r="B71" t="s">
+        <v>63</v>
+      </c>
+      <c r="D71">
+        <v>117.01</v>
+      </c>
+      <c r="F71" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" t="s">
+        <v>14</v>
+      </c>
+      <c r="B72" t="s">
         <v>64</v>
+      </c>
+      <c r="D72">
+        <v>158.87</v>
+      </c>
+      <c r="F72" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/canada/Weekly-Deaths-Prediction r = 5.xlsx
+++ b/future_prediction/canada/Weekly-Deaths-Prediction r = 5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="68">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -61,6 +61,9 @@
     <t>2021-01-30</t>
   </si>
   <si>
+    <t>2021-02-13</t>
+  </si>
+  <si>
     <t>22 Mar -- 28 Mar 2020</t>
   </si>
   <si>
@@ -209,6 +212,9 @@
   </si>
   <si>
     <t>28 Feb -- 06 Mar 2021</t>
+  </si>
+  <si>
+    <t>07 Mar -- 13 Mar 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -569,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K72"/>
+  <dimension ref="A1:K77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -615,7 +621,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2">
         <v>6</v>
@@ -627,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G2">
         <v>0.06</v>
@@ -644,7 +650,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3">
         <v>22.43</v>
@@ -656,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -664,7 +670,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>62.29</v>
@@ -676,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -684,7 +690,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <v>106.71</v>
@@ -696,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -704,7 +710,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>167.14</v>
@@ -716,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -724,7 +730,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <v>159</v>
@@ -736,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -744,7 +750,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8">
         <v>162.71</v>
@@ -756,7 +762,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -764,7 +770,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9">
         <v>139.57</v>
@@ -776,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -784,7 +790,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10">
         <v>95.14</v>
@@ -796,7 +802,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -804,7 +810,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11">
         <v>99</v>
@@ -816,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -824,7 +830,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12">
         <v>98.70999999999999</v>
@@ -836,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -844,7 +850,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13">
         <v>47.57</v>
@@ -856,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -864,7 +870,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14">
         <v>40.43</v>
@@ -876,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -884,7 +890,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15">
         <v>15.71</v>
@@ -896,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -904,7 +910,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16">
         <v>22.29</v>
@@ -916,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -924,7 +930,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17">
         <v>12.29</v>
@@ -936,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -944,7 +950,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C18">
         <v>10.57</v>
@@ -956,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -964,7 +970,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19">
         <v>5.29</v>
@@ -976,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -984,7 +990,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20">
         <v>8.140000000000001</v>
@@ -996,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1004,7 +1010,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>5.43</v>
@@ -1016,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1024,7 +1030,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C22">
         <v>6.86</v>
@@ -1036,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1044,7 +1050,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C23">
         <v>6.43</v>
@@ -1056,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1064,7 +1070,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C24">
         <v>6.29</v>
@@ -1076,7 +1082,7 @@
         <v>21.44</v>
       </c>
       <c r="F24" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1084,7 +1090,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25">
         <v>4.43</v>
@@ -1096,7 +1102,7 @@
         <v>18.75</v>
       </c>
       <c r="F25" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1104,7 +1110,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C26">
         <v>4</v>
@@ -1116,7 +1122,7 @@
         <v>4.72</v>
       </c>
       <c r="F26" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1124,7 +1130,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C27">
         <v>6</v>
@@ -1136,7 +1142,7 @@
         <v>3.13</v>
       </c>
       <c r="F27" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1144,7 +1150,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C28">
         <v>7.29</v>
@@ -1156,7 +1162,7 @@
         <v>0.58</v>
       </c>
       <c r="F28" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1164,7 +1170,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C29">
         <v>25</v>
@@ -1176,7 +1182,7 @@
         <v>17.73</v>
       </c>
       <c r="F29" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1184,7 +1190,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C30">
         <v>24.71</v>
@@ -1196,7 +1202,7 @@
         <v>18.01</v>
       </c>
       <c r="F30" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1204,7 +1210,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C31">
         <v>17.29</v>
@@ -1216,7 +1222,7 @@
         <v>9.58</v>
       </c>
       <c r="F31" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1224,7 +1230,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C32">
         <v>26.71</v>
@@ -1236,7 +1242,7 @@
         <v>20.31</v>
       </c>
       <c r="F32" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1244,7 +1250,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C33">
         <v>31.14</v>
@@ -1256,7 +1262,7 @@
         <v>16.33</v>
       </c>
       <c r="F33" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1264,7 +1270,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C34">
         <v>51.43</v>
@@ -1276,7 +1282,7 @@
         <v>28.75</v>
       </c>
       <c r="F34" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1284,7 +1290,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C35">
         <v>57.14</v>
@@ -1296,7 +1302,7 @@
         <v>22.65</v>
       </c>
       <c r="F35" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1304,7 +1310,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C36">
         <v>72.56999999999999</v>
@@ -1316,7 +1322,7 @@
         <v>23.13</v>
       </c>
       <c r="F36" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1324,7 +1330,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C37">
         <v>76.86</v>
@@ -1336,7 +1342,7 @@
         <v>13.06</v>
       </c>
       <c r="F37" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1344,7 +1350,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C38">
         <v>87.70999999999999</v>
@@ -1356,7 +1362,7 @@
         <v>5.63</v>
       </c>
       <c r="F38" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1364,7 +1370,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C39">
         <v>108.57</v>
@@ -1376,7 +1382,7 @@
         <v>54.38</v>
       </c>
       <c r="F39" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1384,7 +1390,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C40">
         <v>114.86</v>
@@ -1396,7 +1402,7 @@
         <v>36.28</v>
       </c>
       <c r="F40" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1404,7 +1410,7 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C41">
         <v>94.70999999999999</v>
@@ -1416,7 +1422,7 @@
         <v>21.45</v>
       </c>
       <c r="F41" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1424,7 +1430,7 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C42">
         <v>124.71</v>
@@ -1436,7 +1442,7 @@
         <v>5.89</v>
       </c>
       <c r="F42" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1444,7 +1450,7 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C43">
         <v>152.86</v>
@@ -1456,7 +1462,7 @@
         <v>36.71</v>
       </c>
       <c r="F43" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J43">
         <v>36.71</v>
@@ -1470,7 +1476,7 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C44">
         <v>142</v>
@@ -1482,7 +1488,7 @@
         <v>21.43</v>
       </c>
       <c r="F44" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J44">
         <v>29.07</v>
@@ -1496,7 +1502,7 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C45">
         <v>144.86</v>
@@ -1508,7 +1514,7 @@
         <v>20.15</v>
       </c>
       <c r="F45" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J45">
         <v>26.1</v>
@@ -1522,25 +1528,25 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C46">
-        <v>133.43</v>
+        <v>138</v>
       </c>
       <c r="D46">
         <v>112.55</v>
       </c>
       <c r="E46">
-        <v>20.88</v>
+        <v>25.45</v>
       </c>
       <c r="F46" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J46">
-        <v>24.79</v>
+        <v>25.93</v>
       </c>
       <c r="K46">
-        <v>17.17</v>
+        <v>17.86</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1548,13 +1554,25 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="C47">
+        <v>106</v>
       </c>
       <c r="D47">
         <v>90.58</v>
       </c>
+      <c r="E47">
+        <v>15.42</v>
+      </c>
       <c r="F47" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J47">
+        <v>23.83</v>
+      </c>
+      <c r="K47">
+        <v>17.2</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1562,7 +1580,7 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C48">
         <v>152.86</v>
@@ -1574,13 +1592,13 @@
         <v>36.71</v>
       </c>
       <c r="F48" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J48">
-        <v>27.18</v>
+        <v>25.98</v>
       </c>
       <c r="K48">
-        <v>18.54</v>
+        <v>18.34</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -1588,7 +1606,7 @@
         <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C49">
         <v>142</v>
@@ -1600,13 +1618,13 @@
         <v>21.43</v>
       </c>
       <c r="F49" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J49">
-        <v>26.22</v>
+        <v>25.33</v>
       </c>
       <c r="K49">
-        <v>17.96</v>
+        <v>17.87</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -1614,7 +1632,7 @@
         <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C50">
         <v>144.86</v>
@@ -1626,10 +1644,10 @@
         <v>20.15</v>
       </c>
       <c r="F50" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J50">
-        <v>25.35</v>
+        <v>24.68</v>
       </c>
       <c r="K50">
         <v>17.38</v>
@@ -1640,25 +1658,25 @@
         <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C51">
-        <v>133.43</v>
+        <v>138</v>
       </c>
       <c r="D51">
         <v>112.55</v>
       </c>
       <c r="E51">
-        <v>20.88</v>
+        <v>25.45</v>
       </c>
       <c r="F51" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J51">
-        <v>24.79</v>
+        <v>24.77</v>
       </c>
       <c r="K51">
-        <v>17.17</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -1666,13 +1684,25 @@
         <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="C52">
+        <v>106</v>
       </c>
       <c r="D52">
         <v>90.58</v>
       </c>
+      <c r="E52">
+        <v>15.42</v>
+      </c>
       <c r="F52" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J52">
+        <v>23.83</v>
+      </c>
+      <c r="K52">
+        <v>17.2</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -1680,7 +1710,7 @@
         <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C53">
         <v>142</v>
@@ -1692,13 +1722,13 @@
         <v>21.43</v>
       </c>
       <c r="F53" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J53">
-        <v>24.42</v>
+        <v>23.61</v>
       </c>
       <c r="K53">
-        <v>16.94</v>
+        <v>17.01</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -1706,7 +1736,7 @@
         <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C54">
         <v>144.86</v>
@@ -1718,13 +1748,13 @@
         <v>20.15</v>
       </c>
       <c r="F54" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J54">
-        <v>23.99</v>
+        <v>23.33</v>
       </c>
       <c r="K54">
-        <v>16.63</v>
+        <v>16.75</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -1732,25 +1762,25 @@
         <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C55">
-        <v>133.43</v>
+        <v>138</v>
       </c>
       <c r="D55">
         <v>112.55</v>
       </c>
       <c r="E55">
-        <v>20.88</v>
+        <v>25.45</v>
       </c>
       <c r="F55" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J55">
-        <v>23.71</v>
+        <v>23.49</v>
       </c>
       <c r="K55">
-        <v>16.54</v>
+        <v>16.88</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -1758,13 +1788,25 @@
         <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="C56">
+        <v>106</v>
       </c>
       <c r="D56">
         <v>90.58</v>
       </c>
+      <c r="E56">
+        <v>15.42</v>
+      </c>
       <c r="F56" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J56">
+        <v>22.91</v>
+      </c>
+      <c r="K56">
+        <v>16.71</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -1772,13 +1814,25 @@
         <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="C57">
+        <v>76.86</v>
       </c>
       <c r="D57">
         <v>114.16</v>
       </c>
+      <c r="E57">
+        <v>37.3</v>
+      </c>
       <c r="F57" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J57">
+        <v>23.87</v>
+      </c>
+      <c r="K57">
+        <v>18.84</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -1786,7 +1840,7 @@
         <v>13</v>
       </c>
       <c r="B58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C58">
         <v>144.86</v>
@@ -1798,13 +1852,13 @@
         <v>20.15</v>
       </c>
       <c r="F58" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J58">
-        <v>23.41</v>
+        <v>23.64</v>
       </c>
       <c r="K58">
-        <v>16.32</v>
+        <v>18.53</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -1812,25 +1866,25 @@
         <v>13</v>
       </c>
       <c r="B59" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C59">
-        <v>133.43</v>
+        <v>138</v>
       </c>
       <c r="D59">
         <v>112.55</v>
       </c>
       <c r="E59">
-        <v>20.88</v>
+        <v>25.45</v>
       </c>
       <c r="F59" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J59">
-        <v>23.22</v>
+        <v>23.75</v>
       </c>
       <c r="K59">
-        <v>16.27</v>
+        <v>18.52</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -1838,13 +1892,25 @@
         <v>13</v>
       </c>
       <c r="B60" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="C60">
+        <v>106</v>
       </c>
       <c r="D60">
         <v>90.58</v>
       </c>
+      <c r="E60">
+        <v>15.42</v>
+      </c>
       <c r="F60" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J60">
+        <v>23.28</v>
+      </c>
+      <c r="K60">
+        <v>18.3</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -1852,13 +1918,25 @@
         <v>13</v>
       </c>
       <c r="B61" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="C61">
+        <v>76.86</v>
       </c>
       <c r="D61">
         <v>114.16</v>
       </c>
+      <c r="E61">
+        <v>37.3</v>
+      </c>
       <c r="F61" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J61">
+        <v>24.02</v>
+      </c>
+      <c r="K61">
+        <v>19.89</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -1866,13 +1944,13 @@
         <v>13</v>
       </c>
       <c r="B62" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D62">
         <v>120.1</v>
       </c>
       <c r="F62" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -1880,25 +1958,25 @@
         <v>14</v>
       </c>
       <c r="B63" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C63">
-        <v>133.43</v>
+        <v>138</v>
       </c>
       <c r="D63">
         <v>107.53</v>
       </c>
       <c r="E63">
-        <v>25.9</v>
+        <v>30.47</v>
       </c>
       <c r="F63" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J63">
-        <v>23.41</v>
+        <v>24.34</v>
       </c>
       <c r="K63">
-        <v>16.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -1906,125 +1984,255 @@
         <v>14</v>
       </c>
       <c r="B64" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="C64">
+        <v>106</v>
       </c>
       <c r="D64">
         <v>78.37</v>
       </c>
+      <c r="E64">
+        <v>27.63</v>
+      </c>
       <c r="F64" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>67</v>
+      </c>
+      <c r="J64">
+        <v>24.5</v>
+      </c>
+      <c r="K64">
+        <v>20.29</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" t="s">
         <v>14</v>
       </c>
       <c r="B65" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="C65">
+        <v>76.86</v>
       </c>
       <c r="D65">
         <v>98.41</v>
       </c>
+      <c r="E65">
+        <v>21.55</v>
+      </c>
       <c r="F65" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>67</v>
+      </c>
+      <c r="J65">
+        <v>24.37</v>
+      </c>
+      <c r="K65">
+        <v>20.64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" t="s">
         <v>14</v>
       </c>
       <c r="B66" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D66">
         <v>114.27</v>
       </c>
       <c r="F66" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" t="s">
         <v>14</v>
       </c>
       <c r="B67" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D67">
         <v>117.01</v>
       </c>
       <c r="F67" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" t="s">
         <v>14</v>
       </c>
       <c r="B68" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="C68">
+        <v>106</v>
       </c>
       <c r="D68">
         <v>78.37</v>
       </c>
+      <c r="E68">
+        <v>27.63</v>
+      </c>
       <c r="F68" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>67</v>
+      </c>
+      <c r="J68">
+        <v>24.51</v>
+      </c>
+      <c r="K68">
+        <v>20.88</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" t="s">
         <v>14</v>
       </c>
       <c r="B69" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="C69">
+        <v>76.86</v>
       </c>
       <c r="D69">
         <v>98.41</v>
       </c>
+      <c r="E69">
+        <v>21.55</v>
+      </c>
       <c r="F69" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>67</v>
+      </c>
+      <c r="J69">
+        <v>24.38</v>
+      </c>
+      <c r="K69">
+        <v>21.18</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" t="s">
         <v>14</v>
       </c>
       <c r="B70" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D70">
         <v>114.27</v>
       </c>
       <c r="F70" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" t="s">
         <v>14</v>
       </c>
       <c r="B71" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D71">
         <v>117.01</v>
       </c>
       <c r="F71" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" t="s">
         <v>14</v>
       </c>
       <c r="B72" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D72">
         <v>158.87</v>
       </c>
       <c r="F72" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" t="s">
+        <v>15</v>
+      </c>
+      <c r="B73" t="s">
+        <v>62</v>
+      </c>
+      <c r="C73">
+        <v>76.86</v>
+      </c>
+      <c r="D73">
+        <v>98.41</v>
+      </c>
+      <c r="E73">
+        <v>21.55</v>
+      </c>
+      <c r="F73" t="s">
+        <v>67</v>
+      </c>
+      <c r="J73">
+        <v>24.27</v>
+      </c>
+      <c r="K73">
+        <v>21.45</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" t="s">
+        <v>15</v>
+      </c>
+      <c r="B74" t="s">
+        <v>63</v>
+      </c>
+      <c r="D74">
+        <v>114.27</v>
+      </c>
+      <c r="F74" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" t="s">
+        <v>15</v>
+      </c>
+      <c r="B75" t="s">
+        <v>64</v>
+      </c>
+      <c r="D75">
+        <v>117.01</v>
+      </c>
+      <c r="F75" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" t="s">
+        <v>15</v>
+      </c>
+      <c r="B76" t="s">
         <v>65</v>
+      </c>
+      <c r="D76">
+        <v>159.04</v>
+      </c>
+      <c r="F76" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" t="s">
+        <v>15</v>
+      </c>
+      <c r="B77" t="s">
+        <v>66</v>
+      </c>
+      <c r="D77">
+        <v>128.9</v>
+      </c>
+      <c r="F77" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/canada/Weekly-Deaths-Prediction r = 5.xlsx
+++ b/future_prediction/canada/Weekly-Deaths-Prediction r = 5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="71">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -64,6 +64,9 @@
     <t>2021-02-13</t>
   </si>
   <si>
+    <t>2021-02-20</t>
+  </si>
+  <si>
     <t>22 Mar -- 28 Mar 2020</t>
   </si>
   <si>
@@ -215,6 +218,12 @@
   </si>
   <si>
     <t>07 Mar -- 13 Mar 2021</t>
+  </si>
+  <si>
+    <t>14 Mar -- 20 Mar 2021</t>
+  </si>
+  <si>
+    <t>21 Mar -- 27 Mar 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -575,7 +584,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K77"/>
+  <dimension ref="A1:K82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -621,7 +630,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <v>6</v>
@@ -633,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G2">
         <v>0.06</v>
@@ -650,7 +659,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>22.43</v>
@@ -662,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -670,7 +679,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>62.29</v>
@@ -682,7 +691,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -690,7 +699,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>106.71</v>
@@ -702,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -710,7 +719,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>167.14</v>
@@ -722,7 +731,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -730,7 +739,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7">
         <v>159</v>
@@ -742,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -750,7 +759,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8">
         <v>162.71</v>
@@ -762,7 +771,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -770,7 +779,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9">
         <v>139.57</v>
@@ -782,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -790,7 +799,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10">
         <v>95.14</v>
@@ -802,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -810,7 +819,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11">
         <v>99</v>
@@ -822,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -830,7 +839,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12">
         <v>98.70999999999999</v>
@@ -842,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -850,7 +859,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13">
         <v>47.57</v>
@@ -862,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -870,7 +879,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14">
         <v>40.43</v>
@@ -882,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -890,7 +899,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15">
         <v>15.71</v>
@@ -902,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -910,7 +919,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16">
         <v>22.29</v>
@@ -922,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -930,7 +939,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17">
         <v>12.29</v>
@@ -942,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -950,7 +959,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18">
         <v>10.57</v>
@@ -962,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -970,7 +979,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19">
         <v>5.29</v>
@@ -982,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -990,7 +999,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>8.140000000000001</v>
@@ -1002,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1010,7 +1019,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21">
         <v>5.43</v>
@@ -1022,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1030,7 +1039,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C22">
         <v>6.86</v>
@@ -1042,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1050,7 +1059,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C23">
         <v>6.43</v>
@@ -1062,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1070,7 +1079,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C24">
         <v>6.29</v>
@@ -1082,7 +1091,7 @@
         <v>21.44</v>
       </c>
       <c r="F24" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1090,7 +1099,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25">
         <v>4.43</v>
@@ -1102,7 +1111,7 @@
         <v>18.75</v>
       </c>
       <c r="F25" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1110,7 +1119,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C26">
         <v>4</v>
@@ -1122,7 +1131,7 @@
         <v>4.72</v>
       </c>
       <c r="F26" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1130,7 +1139,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C27">
         <v>6</v>
@@ -1142,7 +1151,7 @@
         <v>3.13</v>
       </c>
       <c r="F27" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1150,7 +1159,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C28">
         <v>7.29</v>
@@ -1162,7 +1171,7 @@
         <v>0.58</v>
       </c>
       <c r="F28" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1170,7 +1179,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C29">
         <v>25</v>
@@ -1182,7 +1191,7 @@
         <v>17.73</v>
       </c>
       <c r="F29" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1190,7 +1199,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C30">
         <v>24.71</v>
@@ -1202,7 +1211,7 @@
         <v>18.01</v>
       </c>
       <c r="F30" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1210,7 +1219,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C31">
         <v>17.29</v>
@@ -1222,7 +1231,7 @@
         <v>9.58</v>
       </c>
       <c r="F31" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1230,7 +1239,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C32">
         <v>26.71</v>
@@ -1242,7 +1251,7 @@
         <v>20.31</v>
       </c>
       <c r="F32" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1250,7 +1259,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C33">
         <v>31.14</v>
@@ -1262,7 +1271,7 @@
         <v>16.33</v>
       </c>
       <c r="F33" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1270,7 +1279,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C34">
         <v>51.43</v>
@@ -1282,7 +1291,7 @@
         <v>28.75</v>
       </c>
       <c r="F34" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1290,7 +1299,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C35">
         <v>57.14</v>
@@ -1302,7 +1311,7 @@
         <v>22.65</v>
       </c>
       <c r="F35" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1310,7 +1319,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C36">
         <v>72.56999999999999</v>
@@ -1322,7 +1331,7 @@
         <v>23.13</v>
       </c>
       <c r="F36" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1330,7 +1339,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C37">
         <v>76.86</v>
@@ -1342,7 +1351,7 @@
         <v>13.06</v>
       </c>
       <c r="F37" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1350,7 +1359,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C38">
         <v>87.70999999999999</v>
@@ -1362,7 +1371,7 @@
         <v>5.63</v>
       </c>
       <c r="F38" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1370,7 +1379,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C39">
         <v>108.57</v>
@@ -1382,7 +1391,7 @@
         <v>54.38</v>
       </c>
       <c r="F39" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1390,7 +1399,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C40">
         <v>114.86</v>
@@ -1402,7 +1411,7 @@
         <v>36.28</v>
       </c>
       <c r="F40" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1410,7 +1419,7 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C41">
         <v>94.70999999999999</v>
@@ -1422,7 +1431,7 @@
         <v>21.45</v>
       </c>
       <c r="F41" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1430,7 +1439,7 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C42">
         <v>124.71</v>
@@ -1442,7 +1451,7 @@
         <v>5.89</v>
       </c>
       <c r="F42" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1450,7 +1459,7 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C43">
         <v>152.86</v>
@@ -1462,7 +1471,7 @@
         <v>36.71</v>
       </c>
       <c r="F43" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J43">
         <v>36.71</v>
@@ -1476,7 +1485,7 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C44">
         <v>142</v>
@@ -1488,7 +1497,7 @@
         <v>21.43</v>
       </c>
       <c r="F44" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J44">
         <v>29.07</v>
@@ -1502,7 +1511,7 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C45">
         <v>144.86</v>
@@ -1514,7 +1523,7 @@
         <v>20.15</v>
       </c>
       <c r="F45" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J45">
         <v>26.1</v>
@@ -1528,7 +1537,7 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C46">
         <v>138</v>
@@ -1540,7 +1549,7 @@
         <v>25.45</v>
       </c>
       <c r="F46" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J46">
         <v>25.93</v>
@@ -1554,7 +1563,7 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C47">
         <v>106</v>
@@ -1566,7 +1575,7 @@
         <v>15.42</v>
       </c>
       <c r="F47" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J47">
         <v>23.83</v>
@@ -1580,7 +1589,7 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C48">
         <v>152.86</v>
@@ -1592,7 +1601,7 @@
         <v>36.71</v>
       </c>
       <c r="F48" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J48">
         <v>25.98</v>
@@ -1606,7 +1615,7 @@
         <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C49">
         <v>142</v>
@@ -1618,7 +1627,7 @@
         <v>21.43</v>
       </c>
       <c r="F49" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J49">
         <v>25.33</v>
@@ -1632,7 +1641,7 @@
         <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C50">
         <v>144.86</v>
@@ -1644,7 +1653,7 @@
         <v>20.15</v>
       </c>
       <c r="F50" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J50">
         <v>24.68</v>
@@ -1658,7 +1667,7 @@
         <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C51">
         <v>138</v>
@@ -1670,7 +1679,7 @@
         <v>25.45</v>
       </c>
       <c r="F51" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J51">
         <v>24.77</v>
@@ -1684,7 +1693,7 @@
         <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C52">
         <v>106</v>
@@ -1696,7 +1705,7 @@
         <v>15.42</v>
       </c>
       <c r="F52" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J52">
         <v>23.83</v>
@@ -1710,7 +1719,7 @@
         <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C53">
         <v>142</v>
@@ -1722,7 +1731,7 @@
         <v>21.43</v>
       </c>
       <c r="F53" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J53">
         <v>23.61</v>
@@ -1736,7 +1745,7 @@
         <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C54">
         <v>144.86</v>
@@ -1748,7 +1757,7 @@
         <v>20.15</v>
       </c>
       <c r="F54" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J54">
         <v>23.33</v>
@@ -1762,7 +1771,7 @@
         <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C55">
         <v>138</v>
@@ -1774,7 +1783,7 @@
         <v>25.45</v>
       </c>
       <c r="F55" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J55">
         <v>23.49</v>
@@ -1788,7 +1797,7 @@
         <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C56">
         <v>106</v>
@@ -1800,7 +1809,7 @@
         <v>15.42</v>
       </c>
       <c r="F56" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J56">
         <v>22.91</v>
@@ -1814,7 +1823,7 @@
         <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C57">
         <v>76.86</v>
@@ -1826,7 +1835,7 @@
         <v>37.3</v>
       </c>
       <c r="F57" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J57">
         <v>23.87</v>
@@ -1840,7 +1849,7 @@
         <v>13</v>
       </c>
       <c r="B58" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C58">
         <v>144.86</v>
@@ -1852,7 +1861,7 @@
         <v>20.15</v>
       </c>
       <c r="F58" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J58">
         <v>23.64</v>
@@ -1866,7 +1875,7 @@
         <v>13</v>
       </c>
       <c r="B59" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C59">
         <v>138</v>
@@ -1878,7 +1887,7 @@
         <v>25.45</v>
       </c>
       <c r="F59" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J59">
         <v>23.75</v>
@@ -1892,7 +1901,7 @@
         <v>13</v>
       </c>
       <c r="B60" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C60">
         <v>106</v>
@@ -1904,7 +1913,7 @@
         <v>15.42</v>
       </c>
       <c r="F60" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J60">
         <v>23.28</v>
@@ -1918,7 +1927,7 @@
         <v>13</v>
       </c>
       <c r="B61" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C61">
         <v>76.86</v>
@@ -1930,7 +1939,7 @@
         <v>37.3</v>
       </c>
       <c r="F61" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J61">
         <v>24.02</v>
@@ -1944,13 +1953,25 @@
         <v>13</v>
       </c>
       <c r="B62" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="C62">
+        <v>56.14</v>
       </c>
       <c r="D62">
         <v>120.1</v>
       </c>
+      <c r="E62">
+        <v>63.96</v>
+      </c>
       <c r="F62" t="s">
-        <v>67</v>
+        <v>70</v>
+      </c>
+      <c r="J62">
+        <v>26.02</v>
+      </c>
+      <c r="K62">
+        <v>24.59</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -1958,7 +1979,7 @@
         <v>14</v>
       </c>
       <c r="B63" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C63">
         <v>138</v>
@@ -1970,13 +1991,13 @@
         <v>30.47</v>
       </c>
       <c r="F63" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J63">
-        <v>24.34</v>
+        <v>26.23</v>
       </c>
       <c r="K63">
-        <v>20</v>
+        <v>24.48</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -1984,7 +2005,7 @@
         <v>14</v>
       </c>
       <c r="B64" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C64">
         <v>106</v>
@@ -1996,13 +2017,13 @@
         <v>27.63</v>
       </c>
       <c r="F64" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J64">
-        <v>24.5</v>
+        <v>26.29</v>
       </c>
       <c r="K64">
-        <v>20.29</v>
+        <v>24.55</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2010,7 +2031,7 @@
         <v>14</v>
       </c>
       <c r="B65" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C65">
         <v>76.86</v>
@@ -2022,13 +2043,13 @@
         <v>21.55</v>
       </c>
       <c r="F65" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J65">
-        <v>24.37</v>
+        <v>26.09</v>
       </c>
       <c r="K65">
-        <v>20.64</v>
+        <v>24.7</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2036,13 +2057,25 @@
         <v>14</v>
       </c>
       <c r="B66" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="C66">
+        <v>56.14</v>
       </c>
       <c r="D66">
         <v>114.27</v>
       </c>
+      <c r="E66">
+        <v>58.13</v>
+      </c>
       <c r="F66" t="s">
-        <v>67</v>
+        <v>70</v>
+      </c>
+      <c r="J66">
+        <v>27.42</v>
+      </c>
+      <c r="K66">
+        <v>27.98</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2050,13 +2083,13 @@
         <v>14</v>
       </c>
       <c r="B67" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D67">
         <v>117.01</v>
       </c>
       <c r="F67" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2064,7 +2097,7 @@
         <v>14</v>
       </c>
       <c r="B68" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C68">
         <v>106</v>
@@ -2076,13 +2109,13 @@
         <v>27.63</v>
       </c>
       <c r="F68" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J68">
-        <v>24.51</v>
+        <v>27.43</v>
       </c>
       <c r="K68">
-        <v>20.88</v>
+        <v>27.91</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2090,7 +2123,7 @@
         <v>14</v>
       </c>
       <c r="B69" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C69">
         <v>76.86</v>
@@ -2102,13 +2135,13 @@
         <v>21.55</v>
       </c>
       <c r="F69" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J69">
-        <v>24.38</v>
+        <v>27.2</v>
       </c>
       <c r="K69">
-        <v>21.18</v>
+        <v>27.91</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2116,13 +2149,25 @@
         <v>14</v>
       </c>
       <c r="B70" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="C70">
+        <v>56.14</v>
       </c>
       <c r="D70">
         <v>114.27</v>
       </c>
+      <c r="E70">
+        <v>58.13</v>
+      </c>
       <c r="F70" t="s">
-        <v>67</v>
+        <v>70</v>
+      </c>
+      <c r="J70">
+        <v>28.35</v>
+      </c>
+      <c r="K70">
+        <v>30.71</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2130,13 +2175,13 @@
         <v>14</v>
       </c>
       <c r="B71" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D71">
         <v>117.01</v>
       </c>
       <c r="F71" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2144,13 +2189,13 @@
         <v>14</v>
       </c>
       <c r="B72" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D72">
         <v>158.87</v>
       </c>
       <c r="F72" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2158,7 +2203,7 @@
         <v>15</v>
       </c>
       <c r="B73" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C73">
         <v>76.86</v>
@@ -2170,13 +2215,13 @@
         <v>21.55</v>
       </c>
       <c r="F73" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J73">
-        <v>24.27</v>
+        <v>28.11</v>
       </c>
       <c r="K73">
-        <v>21.45</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2184,13 +2229,25 @@
         <v>15</v>
       </c>
       <c r="B74" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="C74">
+        <v>56.14</v>
       </c>
       <c r="D74">
         <v>114.27</v>
       </c>
+      <c r="E74">
+        <v>58.13</v>
+      </c>
       <c r="F74" t="s">
-        <v>67</v>
+        <v>70</v>
+      </c>
+      <c r="J74">
+        <v>29.14</v>
+      </c>
+      <c r="K74">
+        <v>33.13</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -2198,13 +2255,13 @@
         <v>15</v>
       </c>
       <c r="B75" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D75">
         <v>117.01</v>
       </c>
       <c r="F75" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -2212,13 +2269,13 @@
         <v>15</v>
       </c>
       <c r="B76" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D76">
         <v>159.04</v>
       </c>
       <c r="F76" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -2226,13 +2283,83 @@
         <v>15</v>
       </c>
       <c r="B77" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D77">
         <v>128.9</v>
       </c>
       <c r="F77" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" t="s">
+        <v>16</v>
+      </c>
+      <c r="B78" t="s">
+        <v>65</v>
+      </c>
+      <c r="D78">
+        <v>117.01</v>
+      </c>
+      <c r="F78" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" t="s">
+        <v>16</v>
+      </c>
+      <c r="B79" t="s">
+        <v>66</v>
+      </c>
+      <c r="D79">
+        <v>159.04</v>
+      </c>
+      <c r="F79" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" t="s">
+        <v>16</v>
+      </c>
+      <c r="B80" t="s">
         <v>67</v>
+      </c>
+      <c r="D80">
+        <v>128.9</v>
+      </c>
+      <c r="F80" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" t="s">
+        <v>16</v>
+      </c>
+      <c r="B81" t="s">
+        <v>68</v>
+      </c>
+      <c r="D81">
+        <v>141.55</v>
+      </c>
+      <c r="F81" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" t="s">
+        <v>16</v>
+      </c>
+      <c r="B82" t="s">
+        <v>69</v>
+      </c>
+      <c r="D82">
+        <v>110.17</v>
+      </c>
+      <c r="F82" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
